--- a/modelos/OBAOLE4421026/OBAOLE4421026_Sell Out_metricas.xlsx
+++ b/modelos/OBAOLE4421026/OBAOLE4421026_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45012</v>
       </c>
       <c r="B2" t="n">
-        <v>308.1980812358261</v>
+        <v>321.9830889643393</v>
       </c>
       <c r="C2" t="n">
-        <v>193.0055946537292</v>
+        <v>193.6838651068483</v>
       </c>
       <c r="D2" t="n">
-        <v>431.8632254314729</v>
+        <v>453.6980204357799</v>
       </c>
       <c r="E2" t="n">
         <v>145</v>
@@ -496,13 +496,13 @@
         <v>45020</v>
       </c>
       <c r="B3" t="n">
-        <v>351.7918032990276</v>
+        <v>334.617051427264</v>
       </c>
       <c r="C3" t="n">
-        <v>225.1728774005736</v>
+        <v>201.4412106809317</v>
       </c>
       <c r="D3" t="n">
-        <v>469.1796981730875</v>
+        <v>477.9703527542144</v>
       </c>
       <c r="E3" t="n">
         <v>364</v>
@@ -516,13 +516,13 @@
         <v>45026</v>
       </c>
       <c r="B4" t="n">
-        <v>269.9839622273988</v>
+        <v>282.9427642091829</v>
       </c>
       <c r="C4" t="n">
-        <v>144.1678837985936</v>
+        <v>144.8979069986923</v>
       </c>
       <c r="D4" t="n">
-        <v>389.7885597876287</v>
+        <v>422.4408199157021</v>
       </c>
       <c r="E4" t="n">
         <v>411</v>
@@ -536,13 +536,13 @@
         <v>45033</v>
       </c>
       <c r="B5" t="n">
-        <v>295.2158366082063</v>
+        <v>307.4526648795781</v>
       </c>
       <c r="C5" t="n">
-        <v>173.1457400548898</v>
+        <v>186.8519288262709</v>
       </c>
       <c r="D5" t="n">
-        <v>416.7015587857702</v>
+        <v>439.106766149849</v>
       </c>
       <c r="E5" t="n">
         <v>504</v>
@@ -556,13 +556,13 @@
         <v>45040</v>
       </c>
       <c r="B6" t="n">
-        <v>329.1392813554202</v>
+        <v>339.3036633034721</v>
       </c>
       <c r="C6" t="n">
-        <v>201.8687889634981</v>
+        <v>206.3010201981349</v>
       </c>
       <c r="D6" t="n">
-        <v>452.7942703311427</v>
+        <v>478.1075511859414</v>
       </c>
       <c r="E6" t="n">
         <v>363</v>
@@ -576,13 +576,13 @@
         <v>45058</v>
       </c>
       <c r="B7" t="n">
-        <v>450.4425345418488</v>
+        <v>474.1305703970985</v>
       </c>
       <c r="C7" t="n">
-        <v>325.3471491184705</v>
+        <v>331.2447655198174</v>
       </c>
       <c r="D7" t="n">
-        <v>576.1302510639298</v>
+        <v>609.9972504960995</v>
       </c>
       <c r="E7" t="n">
         <v>648</v>
@@ -657,22 +657,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>149.0400666896332</v>
+        <v>863.3576668280509</v>
       </c>
       <c r="C2" t="n">
-        <v>12.20819670097239</v>
+        <v>29.38294857273604</v>
       </c>
       <c r="D2" t="n">
-        <v>12.20819670097239</v>
+        <v>29.38294857273604</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03353900192574834</v>
+        <v>0.08072238618883527</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03353900192574834</v>
+        <v>0.08072238618883527</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03411102682289958</v>
+        <v>0.08411746753878144</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -683,25 +683,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>26057.09278734525</v>
+        <v>23428.92385679143</v>
       </c>
       <c r="C3" t="n">
-        <v>161.4220951027004</v>
+        <v>153.0650967947671</v>
       </c>
       <c r="D3" t="n">
-        <v>148.8832933005904</v>
+        <v>139.8306852350015</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4562031728547515</v>
+        <v>0.4511437734004706</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3431047147751853</v>
+        <v>0.311574782946027</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4228762124419716</v>
+        <v>0.3977726196669085</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAOLE4421026/OBAOLE4421026_Sell Out_metricas.xlsx
+++ b/modelos/OBAOLE4421026/OBAOLE4421026_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45012</v>
       </c>
       <c r="B2" t="n">
-        <v>321.9830889643393</v>
+        <v>308.2091139089595</v>
       </c>
       <c r="C2" t="n">
-        <v>193.6838651068483</v>
+        <v>184.7444279701895</v>
       </c>
       <c r="D2" t="n">
-        <v>453.6980204357799</v>
+        <v>433.0146069518796</v>
       </c>
       <c r="E2" t="n">
         <v>145</v>
@@ -496,13 +496,13 @@
         <v>45020</v>
       </c>
       <c r="B3" t="n">
-        <v>334.617051427264</v>
+        <v>351.6881642406919</v>
       </c>
       <c r="C3" t="n">
-        <v>201.4412106809317</v>
+        <v>222.3177562498931</v>
       </c>
       <c r="D3" t="n">
-        <v>477.9703527542144</v>
+        <v>468.0961611494487</v>
       </c>
       <c r="E3" t="n">
         <v>364</v>
@@ -516,13 +516,13 @@
         <v>45026</v>
       </c>
       <c r="B4" t="n">
-        <v>282.9427642091829</v>
+        <v>270.1121276884721</v>
       </c>
       <c r="C4" t="n">
-        <v>144.8979069986923</v>
+        <v>137.3923910225343</v>
       </c>
       <c r="D4" t="n">
-        <v>422.4408199157021</v>
+        <v>394.217005298551</v>
       </c>
       <c r="E4" t="n">
         <v>411</v>
@@ -536,13 +536,13 @@
         <v>45033</v>
       </c>
       <c r="B5" t="n">
-        <v>307.4526648795781</v>
+        <v>295.6657660483434</v>
       </c>
       <c r="C5" t="n">
-        <v>186.8519288262709</v>
+        <v>174.4559431087881</v>
       </c>
       <c r="D5" t="n">
-        <v>439.106766149849</v>
+        <v>414.8160498027914</v>
       </c>
       <c r="E5" t="n">
         <v>504</v>
@@ -556,13 +556,13 @@
         <v>45040</v>
       </c>
       <c r="B6" t="n">
-        <v>339.3036633034721</v>
+        <v>330.8766148710889</v>
       </c>
       <c r="C6" t="n">
-        <v>206.3010201981349</v>
+        <v>200.8767495344212</v>
       </c>
       <c r="D6" t="n">
-        <v>478.1075511859414</v>
+        <v>459.1460302087212</v>
       </c>
       <c r="E6" t="n">
         <v>363</v>
@@ -576,13 +576,13 @@
         <v>45058</v>
       </c>
       <c r="B7" t="n">
-        <v>474.1305703970985</v>
+        <v>450.5228190289173</v>
       </c>
       <c r="C7" t="n">
-        <v>331.2447655198174</v>
+        <v>330.3385194629348</v>
       </c>
       <c r="D7" t="n">
-        <v>609.9972504960995</v>
+        <v>579.8130992692219</v>
       </c>
       <c r="E7" t="n">
         <v>648</v>
@@ -657,22 +657,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>863.3576668280509</v>
+        <v>151.5812997641765</v>
       </c>
       <c r="C2" t="n">
-        <v>29.38294857273604</v>
+        <v>12.31183575930805</v>
       </c>
       <c r="D2" t="n">
-        <v>29.38294857273604</v>
+        <v>12.31183575930805</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08072238618883527</v>
+        <v>0.03382372461348366</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08072238618883527</v>
+        <v>0.03382372461348366</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08411746753878144</v>
+        <v>0.0344055871662214</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -683,25 +683,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>23428.92385679143</v>
+        <v>25983.78186801336</v>
       </c>
       <c r="C3" t="n">
-        <v>153.0650967947671</v>
+        <v>161.1948568286636</v>
       </c>
       <c r="D3" t="n">
-        <v>139.8306852350015</v>
+        <v>148.4063572544276</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4511437734004706</v>
+        <v>0.4549954915740961</v>
       </c>
       <c r="F3" t="n">
-        <v>0.311574782946027</v>
+        <v>0.3427928766703843</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3977726196669085</v>
+        <v>0.4214227257090888</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAOLE4421026/OBAOLE4421026_Sell Out_metricas.xlsx
+++ b/modelos/OBAOLE4421026/OBAOLE4421026_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,39 +473,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45012</v>
+        <v>45020</v>
       </c>
       <c r="B2" t="n">
-        <v>308.2091139089595</v>
+        <v>345.8093967003795</v>
       </c>
       <c r="C2" t="n">
-        <v>184.7444279701895</v>
+        <v>215.844549917825</v>
       </c>
       <c r="D2" t="n">
-        <v>433.0146069518796</v>
+        <v>489.5469614862862</v>
       </c>
       <c r="E2" t="n">
-        <v>145</v>
+        <v>364</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45005</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45020</v>
+        <v>45026</v>
       </c>
       <c r="B3" t="n">
-        <v>351.6881642406919</v>
+        <v>273.0274542804335</v>
       </c>
       <c r="C3" t="n">
-        <v>222.3177562498931</v>
+        <v>135.1121381622197</v>
       </c>
       <c r="D3" t="n">
-        <v>468.0961611494487</v>
+        <v>415.0535050011607</v>
       </c>
       <c r="E3" t="n">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45019</v>
@@ -513,81 +513,61 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="B4" t="n">
+        <v>297.7747192418786</v>
+      </c>
+      <c r="C4" t="n">
+        <v>165.7269659105305</v>
+      </c>
+      <c r="D4" t="n">
+        <v>446.6812874394903</v>
+      </c>
+      <c r="E4" t="n">
+        <v>504</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>45026</v>
-      </c>
-      <c r="B4" t="n">
-        <v>270.1121276884721</v>
-      </c>
-      <c r="C4" t="n">
-        <v>137.3923910225343</v>
-      </c>
-      <c r="D4" t="n">
-        <v>394.217005298551</v>
-      </c>
-      <c r="E4" t="n">
-        <v>411</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>45019</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B5" t="n">
+        <v>330.2920320468252</v>
+      </c>
+      <c r="C5" t="n">
+        <v>183.5711451278363</v>
+      </c>
+      <c r="D5" t="n">
+        <v>473.1910332918271</v>
+      </c>
+      <c r="E5" t="n">
+        <v>363</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>45033</v>
-      </c>
-      <c r="B5" t="n">
-        <v>295.6657660483434</v>
-      </c>
-      <c r="C5" t="n">
-        <v>174.4559431087881</v>
-      </c>
-      <c r="D5" t="n">
-        <v>414.8160498027914</v>
-      </c>
-      <c r="E5" t="n">
-        <v>504</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>45026</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45040</v>
+        <v>45058</v>
       </c>
       <c r="B6" t="n">
-        <v>330.8766148710889</v>
+        <v>454.7905170053373</v>
       </c>
       <c r="C6" t="n">
-        <v>200.8767495344212</v>
+        <v>304.7589259981195</v>
       </c>
       <c r="D6" t="n">
-        <v>459.1460302087212</v>
+        <v>589.9801681015555</v>
       </c>
       <c r="E6" t="n">
-        <v>363</v>
+        <v>648</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45033</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45058</v>
-      </c>
-      <c r="B7" t="n">
-        <v>450.5228190289173</v>
-      </c>
-      <c r="C7" t="n">
-        <v>330.3385194629348</v>
-      </c>
-      <c r="D7" t="n">
-        <v>579.8130992692219</v>
-      </c>
-      <c r="E7" t="n">
-        <v>648</v>
-      </c>
-      <c r="F7" s="2" t="n">
         <v>45051</v>
       </c>
     </row>
@@ -657,22 +637,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>151.5812997641765</v>
+        <v>330.8980484041655</v>
       </c>
       <c r="C2" t="n">
-        <v>12.31183575930805</v>
+        <v>18.19060329962053</v>
       </c>
       <c r="D2" t="n">
-        <v>12.31183575930805</v>
+        <v>18.19060329962053</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03382372461348366</v>
+        <v>0.0499741848890674</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03382372461348366</v>
+        <v>0.0499741848890674</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0344055871662214</v>
+        <v>0.05125489570631606</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -683,25 +663,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>25983.78186801336</v>
+        <v>24991.25132069865</v>
       </c>
       <c r="C3" t="n">
-        <v>161.1948568286636</v>
+        <v>158.0862148344967</v>
       </c>
       <c r="D3" t="n">
-        <v>148.4063572544276</v>
+        <v>142.5288193563813</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4549954915740961</v>
+        <v>0.2832860365736666</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3427928766703843</v>
+        <v>0.3169312035104935</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4214227257090888</v>
+        <v>0.3406477252198423</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
